--- a/processing/test/20230613-a1r-nc-session3-d_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-d_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-d_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,269 +361,285 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.6328125" customWidth="1" style="3" min="3" max="4"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" style="3" min="3" max="4"/>
+    <col width="273.5" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:07"</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Hey, everyone. It's Rachel. I just want to let y'all know I'm outside today. So I apologize in advance for any road noise.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:21"</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Dion. And I'm really envious and very chilled. It's been cloudy and like 60 degrees here for the last three days.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:34"</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Gabriel. I hope everybody's doing good tonight.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:44"</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Hey, it's Nathan.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:49"</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Sonia.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"2:49"</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Happy Tuesday.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"11:35"</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>I am for all of these items.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"11:44"</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>I am too and I know, you know, this is a country where up until the last two president. Our last two elections, it was hard to get 50% of the population to vote. So anything that makes people eligible I'm all for</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"12:00"</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>We actually already have the first two in our in our State Minnesota online. Voter registration and same-day registration, they seem to be working fine. The third one I'd be happy with as well. I don't really know why they needed a need to opt out though, but it seems good.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"12:17"</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>I understand the opt-out on the third one and I don't understand though. The problem they seem to think people would have, I think that you would have the smallest percentage of people that are upset about automatically, being put into the system and have an opt-out</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses an opt-out option in the context of being automatically put into a system.
 2. The author of the text claims to understand this opt-out option.
@@ -629,53 +647,54 @@
 4. The author believes that only a small percentage of people would be upset about being automatically included in the system with an opt-out option.</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"15:00"</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>I think that everyone who wants to should be allowed to vote my vote by mail. Because, like, some people just like, you can't just be home on Election Day. Like you might not be home where you're registered to vote. So, sending in the mail in ballots just makes sense and it allows for people to vote</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"15:35"</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>I'm not sure why it would require that vote-by-mail ballots, be physically physically submitted only by voters. That would be different than Dropbox ballots, and I'm not even sure there's a big deal about having a third parties collect Dropbox ballots, but I'm for any kind of voting actually just to get people out there to vote.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text raises a question about the requirement of voters physically submitting vote-by-mail ballots.
 2. The author suggests that this is different from Dropbox ballots.
@@ -683,136 +702,138 @@
 4. The author supports any kind of voting to encourage people to vote.</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"15:35"</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It's not voters that are committing any fraud and I don't think there's that much fraud. The you might be worried about election officials, but I can't imagine</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"15:35"</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> that there's a lot of fraud if Balor if pull books are used properly,</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Balor pull books are mentioned in the text.
 2. There is a potential for a lot of fraud if Balor pull books are used.
 3. The key point is that the fraud occurs when Balor pull books are not used properly.</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"16:24"</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>I would agree. I don't really see election fraud, being a very significant problem and what we have does seem to be working and I can't see why we would want to add all these extra burdens and encourage additional costs.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person does not see election fraud as a significant problem.
 2. They believe that the current system is working.
 3. They do not want to add extra burdens and costs to the system.</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"16:40"</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>I would agree with that.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"16:49"</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>I feel like there would be a potential for more fraud. Maybe if we did the implementation where like, you type it in on the voter machine and it prints out a piece of paper that you then have to verify and make sure it gets in the box. Like, so we, that just seeing, if there's way, more steps, where things could mess up there. I feel like just being able to input it in the machine, you know. Like, I think it already kind of, just spit something out, have to go stick it in but I don't know. I just feel like</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes there is a potential for more fraud with the current voting system.
 2. They suggest an implementation where voters input information on a voting machine.
@@ -824,236 +845,241 @@
 8. They express a feeling that there could be issues with the current system.</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"16:49"</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Like the more steps we add in between voting and getting it to The Ballot Box and horse chances, there are her mistake to be made accidentally on purpose.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"17:30"</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>In Michigan. I do. I mean I know different states are different but we vote on paper ballots and then submit them into the machine. So there's an automatic paper trail there. They don't throw those ballots away after they're counted in the machines.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"17:54"</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>Does anyone live in a state where they don't vote on paper ballot that it's like Autumn. I mean, I don't know. Are there states where they they're just done on computer?</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text asks if anyone lives in a state where they don't vote using paper ballots.
 2. The author compares voting without paper ballots to Autumn.
 3. The text also asks if there are states where voting is done solely on computers.</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"19:34"</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>Okay, I can only speak to one of these. I don't really care. I mean, I know that's not true. I do care. I don't see a problem with maybe a national standard for presidential elections. I don't know why States can't continue to set their own standards so far. They haven't messed with it too bad. The only thing I really have a comment on is voter ID. Once again if a ballot book is used properly, I don't understand having</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n"/>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"19:34"</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> To furnish a voter i d. I never do. I always just signed the thing on the back that says, I am who I am.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"20:12"</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>I live in Missouri and we have to have a driver's license or some kind of photo government-issued ID and I feel like it really does affect who can vote because some people don't drive, you know, some people don't have time to go sit at the DMV for, you know, I mean, it takes forever just to get a government. I do, go sit down, get your picture taken. So,</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person who was interviewed lives in Missouri.
 2. A driver's license or a photo ID issued by the government is required to vote in Missouri.
-3. The requirement for a government-issued ID affects who can vote, as some people do not drive or have the time to go to the DMV.
-4. The DMV process can be time-consuming, requiring individuals to wait in line to get their picture taken.</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
+3. The requirement for a photo ID affects who can vote, as some people do not drive or have the time to go to the DMV.
+4. The process of obtaining a photo ID from the DMV can be time-consuming, requiring individuals to wait in line and have their picture taken.</t>
+        </is>
       </c>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"20:12"</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I don't know. I mean, I don't think I've ever had to sign a ballot before, but it sounds like maybe there was a way to do it before and we've kind of straight away from that, but I would just like to see, maybe that goal a Subway, more people could vote her, don't have government IDs on hand,</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is unsure if they have signed a ballot before.
 2. They mention that there might have been a way to do it in the past, but it is not commonly done now.
 3. They express a desire to make it easier for more people to vote, even if they don't have government IDs with them.</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"21:00"</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>You don't. Well, I mean every state is different. You don't sign the ballot book per se, but they crossed you off when you, when you when you both. So if they've crossed you off. I mean, even if somebody is going to try to vote for you, that would be like a one on one thing and that would be so ridiculous to assume that you would have overwhelming voter fraud with people doing that, that would be crazy.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"21:37"</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>I think there should be some kind of ID or some kind of identification. That's required. I know in California, we have a high influx of illegal immigrants and without that I can see them all voting.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests that some form of identification is necessary.
 2. This identification is described as an "ID" or some other form of identification.
@@ -1063,299 +1089,317 @@
 6. The text suggests that without identification, these illegal immigrants could vote, which is presented as a negative outcome.</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"21:54"</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>But my question is in Sonia's is if they're going to take somebody's name and just pointed out and say, well that's me and then that person comes in. Then there's going to be a, you know, an issue. They because ballot books are use. They can't. I mean, I don't see how anybody could vote fraudulently and get away with it like that not in person.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"22:17"</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>I just think it would be a weight like if no ID is required. If you easy to take somebody's ID deceased ID like they currently do or you know, just if there's not even just okay, I want to register with your name and your date of birth. Okay, now you're registered with no identification. So I think it should be required, but</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The author thinks that a weight should be given to the requirement of IDs for registration.
+2. They suggest that it should be as important as the requirement of a name and date of birth.
+3. The author believes that IDs should be required for registration.
+4. They mention the possibility of identity theft, such as using a deceased person's ID.
+5. The author thinks that registration without any identification is not acceptable.</t>
+        </is>
       </c>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"22:43"</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"22:43"</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>But that would be a different issue. That's not voting, that would be registering to vote. And I mean, here you do because they automatically register you, when you get your driver's license. So you are showing ID to register to vote but, you know, once you're registered, I don't, I don't know. In my opinion, the possibility of fraud is</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"22:43"</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Real small in person. I don't, I can't really address how they would do fraud in Malin and drop box voting, because I don't understand that either. So,</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"23:30"</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>And I guess I'll add that I'm not in favor of voter photo ID because there's a lot of people in the population that don't have them that are valid voters.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is not in favor of voter photo ID.
 2. The reason for their opposition is that there are many people in the population who are valid voters but do not have photo IDs.</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"23:42"</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>I wouldn't really understand the idea of a voter ID considering how I registered to vote. And, you know, being asked down at the DMV already. I'm not, I'm not entirely sure what that would accomplish other than just a bunch of extra steps, money go in there.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker does not understand the concept of a voter ID.
 2. The speaker registered to vote already.
 3. The speaker was asked for identification at the DMV.
-4. The speaker sees additional steps and cost as unnecessary.</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
+4. The speaker is unsure of the purpose of a voter ID.
+5. The speaker believes that implementing voter ID would create extra steps and cost money.</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>10532</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"24:18"</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>I've never understood the argument that it's hard to get an ID. I've never known a single person in my entire life. That's had any issues going to get a license or a government ID when you get them the same day. Same afternoon, you walk in. And I just, I've never understood that.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"24:37"</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>Some people are disabled and they have just a hard time getting down there. I think that's a big part of what's going on.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Some people are disabled.
 2. They have difficulty getting down (presumably referring to a specific place or position).
 3. This difficulty is a significant factor in the situation being discussed.</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"24:37"</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>And other issues to probably but I think just such as that unable to drive unable to there's issues people.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"24:56"</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>I have been at the DMV before getting my driver's license, updated, when I got married and I saw several people, you know, step up to the, you know, window beside me and it was like, oh, you need to have, you know, two pieces of mail. You got to have whatever light bill, you know, something like that. And the kid was like, oh, I've got it here on my phone, they're like, no, you gotta have it on paper and he's like, there's a printer, you know, right behind the windows. I can. Can I just email it to you? Print it. And</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"24:56"</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> We got to go somewhere else and they sent him away. I mean, he had all this stuff there, he just didn't have a printed out on paper, and they send them away. So, I mean, I've seen it firsthand. It's hard to get, and I do sometimes just the wait time. And some people got to work. So</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. They were required to go to a different location.
 2. The person they were with was sent away.
@@ -1367,213 +1411,217 @@
 8. Some people need to work during the available service hours.</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"25:43"</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>If she's not wrong, I'm having trouble getting an enhanced driver's license. Because the name I use now is different than the name. I was born with and they're like, well, you know, even though I've taken in a birth certificate, they're like, well, how did you get from there to here? You know, and I mean, I'm very old. So the way I got from here to there was a long time ago, so trying to dig up those</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n"/>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"25:43"</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Those paper were that paperwork, a few states away. It's not as easy as it sounds.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>10532</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"26:16"</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>Taney one should be easy but you know proving who you really are. I mean there should be a standard because you know, it needs to be there needs to be a way to prevent any Joe Schmo walking in and claiming their US citizen getting an ID and going to vote</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Proving one's identity should be straightforward.
 2. There is a need for a standard to prevent fraudulent claims of US citizenship.
 3. A standard is necessary to prevent anyone (referred to as "any Joe Schmo") from obtaining a false ID and voting.</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"26:33"</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>One thing that's been rattling through my head to is, is we all have a social security number. We hand in this thing out at almost every interval, you know, at the DMV act, doctor's office Etc. And so how does why do we need so many Subs? How many times do I need to prove who I am through different measures and how many times you know how difficult is it for the government to keep track of its citizens?</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the idea that people are required to provide their social security number frequently, such as at the DMV and doctor's office.
 2. The speaker wonders why there is a need for multiple forms of identification and the difficulty for the government in keeping track of its citizens.
 3. The text questions the frequency and challenges of proving one's identity through different measures.</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"26:33"</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>When we're already going through these steps.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"27:36"</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>I think they should give them back once. They've completed their term that they've already been punished, why stripped them of their rights.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker thinks that a certain group of people should have something returned to them.
 2. The item in question is not specified, but it may be a privilege or right.
 3. The group of people have completed a term during which they were punished.
-4. The speaker questions why the group's rights have been stripped from them, even after they have completed their term.</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
+4. The speaker questions why the group's rights have been stripped from them, even after they have completed their punishment.</t>
+        </is>
       </c>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"27:51"</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>I agree.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"27:53"</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree to they paid their debt to society. They should be able to move on with their lives. I think that we need to start trying to create a, you know, but beyond the voting to we need to try and start creating a better understanding when we're dealing with some of these situations to giving opportunities to people. So we don't have to continually deal with, you know, what comes from the lack of oxygen?</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that criminals who have paid their debt to society should be able to move on with their lives.
 2. They suggest that a better understanding needs to be created when dealing with some situations.
@@ -1581,107 +1629,108 @@
 4. The person may be referring to the phrase "lack of oxygen," which could mean a lack of resources or opportunities, but it is unclear in this context.</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"28:22"</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>I once heard and I don't remember where I heard this, but I once heard that like how is society treats its most disenfranchised members? It's like a direct reflection on like their democracy basically. So like if we're stripping the rights from, you know, convicted felons than all it takes, is for some law to be written in. That makes something, you know, that's intrinsic to you illegal. I won't give any</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"28:22"</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Examples here. But once they do that, then you can become a convicted felon so easily and have your rights Stripped Away just like that. So I'm in favor of restoring voting rights of convicted felons as they serve their sentence</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n"/>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"29:05"</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>I believe Rachel actually can find a prime example of that in our own country's history. As a matter of fact, not too long ago, I believe that's what they were doing. They were creating a lot of felons after the slaves were freed, so people still did not have the right.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Rachel believes she can find a prime example of a certain situation in the history of their country.
-2. The situation involves the creation of many felons after slaves were freed.
-3. This situation occurred not too long ago in history.
-4. The creation of felons was a way to deny people their rights, even after slavery was abolished.</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. Rachel believes she can find a prime example of a certain situation in the history of the United States.
+2. The situation involves the creation of many felons after the abolition of slavery.
+3. This occurred post-emancipation, denying many people their rights despite the end of slavery.</t>
+        </is>
       </c>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"29:31"</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>Yeah, that support giving him the right to vote again to, I mean, they've been rehabilitated in prison, at least in theory, right? So they should be able to vote again.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the right to vote for individuals who have been incarcerated.
 2. The argument is made that if an individual has been rehabilitated in prison, they should be able to vote again.
@@ -1689,200 +1738,206 @@
 4. The text appears to be in favor of restoring voting rights to individuals who have been released from prison after serving their sentence.</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"31:10"</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>Okay. So I'm totally down with the idea that the first one here, where we established criminal penalties for misleading deceiving or intimidating, that sounds like it should have been done a long time ago. The idea of forcing people to show up in person though, to me, it seems like we're just once again trying to maybe, you know, get in the way of individuals.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text supports establishing criminal penalties for misleading, deceiving, or intimidating.
 2. The speaker has reservations about forcing people to appear in person, viewing it as potentially obstructive towards individuals.</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"31:10"</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> it's a good idea but I think it needs to have something added to it and an option for people who just have a difficult time, I think everybody should be able to</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The proposal is generally a good idea.
-2. Something additional needs to be added to the proposal.
+2. Something needs to be added to the proposal.
 3. An option should be included for people who find it difficult to use.
-4. Everybody should have access to the proposal's benefits.</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
+4. Everybody should have access to the option.</t>
+        </is>
       </c>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"31:53"</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>Yeah, I'm I was Doug II. Can't imagine.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"31:53"</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Requiring people show up to vote. It's just a step back. It's just like pretending. There's no technology that can handle these things now, and the other thing I like having observers at polling from different parties at the polling places. But the idea that they could challenge a voter is kind of</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"31:53"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"31:53"</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Having watched some of those people who wanted to challenge voters in the last election on television. I that that doesn't sound like a very good idea at all to let them speak up and say you know, we're</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"32:41"</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t>I am and this is just from my own experience. I don't know about other people's experiences but I am not in favor of allowing the representatives from political parties and other groups to be poll Watchers because like the last time I voted</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"32:41"</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> There was like, poll Watchers in there and I don't know if they were like not supposed to be wearing clothes that say certain things on. I don't know, but like, and I didn't really, like, I just felt extremely uncomfortable and they were standing there. As I was trying to put my ballot in, and I felt like, yeah, like they were going to say something to me or that they were like, really unhappy that I was even there. And so like, that's just my experience, and it made me super uncomfortable, just trying to put my vote in.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person noticed poll watchers at their voting location.
 2. They were unsure if the poll watchers were following dress code rules.
@@ -1892,107 +1947,109 @@
 6. The experience made the person feel super uncomfortable while trying to vote.</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"33:25"</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>Yeah, I have to agree with Rachel and the on on those as well. It seems like once again it's almost maybe intimidation Factor because I had it. I had anxiety as well. Like Rachel was saying and I need, you know, I just kind of had to suck it down and say this is what I'm doing. If anybody you know tries to hassle, me just going to have to deal with the hassle when I don't want to deal with the hassle, I have anxiety.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"33:54"</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think I'd get even worse. If we start to have political parties, they're in challenging people and whether they can vote or not for one. I don't know how they even know whether it's whether somebody is a good candidate to challenge but when they do that's just I could see them abusing that to obstruct the voting process slows things down and try to and well you know, if it takes too much time to vote, people are going to want to do it too.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The existence of political parties could lead to challenging candidates and their qualifications to vote.
-2. The process of challenging candidates could be abused to obstruct the voting process.
-3. Challenging candidates could slow down the voting process.
-4. A slow voting process may discourage people from voting.</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The existence of political parties could lead to challenges against candidates.
+2. There is no clear criteria for determining if a candidate is worthy of a challenge.
+3. This process could be abused to obstruct the voting process and slow things down.
+4. If voting takes too much time, people may be discouraged from participating.</t>
+        </is>
       </c>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"34:21"</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>I would agree. I think it's a step but going backwards.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"35:57"</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>I think the voting equipment and stuff that we already have is already really good and doesn't really need improving. And the federal government already has enough of a budget deficit as it is, I'd rather just see the states, keep doing it and keep doing it, but we got don't think there's a need</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The voting equipment and systems currently in use are already good and do not require improvement.
 2. The federal government has a budget deficit, and funds should not be allocated for improving voting equipment.
@@ -2000,184 +2057,189 @@
 4. There is no perceived need for changes to the current voting systems.</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>48691</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"36:15"</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>I would agree. I haven't seen any issues with the appointment when I voted.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
-      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"36:24"</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t>Agreed.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
-      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"36:33"</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>I would agree to I'm going to skip down to the make the office of the chief electoral office nonpartisan. How would it be nonpartisan? Somebody would have even if you didn't vote for that person, someone's going to have to appoint them. Wouldn't that just make it automatically partisan?</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The topic is making the office of the chief electoral officer nonpartisan.
-2. The idea of making this office nonpartisan is agreed upon.
-3. There is a question about how the office could be truly nonpartisan, since someone would have to appoint the chief electoral officer, even if the officer is not voted into office.
-4. It is suggested that this appointment process could potentially make the office partisan, regardless of efforts to make it nonpartisan.</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
+2. The idea of a nonpartisan chief electoral officer is agreed upon.
+3. The concern is that the appointment process for this position may not be nonpartisan.
+4. It is noted that someone will have to appoint the chief electoral officer, even if the individual did not vote for that person.
+5. It is suggested that this appointment process may automatically make the position partisan.</t>
+        </is>
       </c>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"36:53"</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>Sounds to me like we did end up with another person in the position that would be there forever. You know, the kind of position that's getting paid to make certain decisions that ain't necessarily for the people who they should be.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It seems that a new person has been added to a permanent position.
 2. This position has the authority to make decisions.
-3. These decisions may not be in the best interest of the people who are affected by them.
-4. The person is receiving payment for their role.</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
+3. These decisions may not be in the best interest of the people they affect.
+4. The person is being paid for this role.</t>
+        </is>
       </c>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"37:09"</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>I feel like in fiery having it be like a nonpartisan professional, you know, position that sounds good. But yeah, I mean it would require someone to be appointed and how can you really be nonpartisan? I mean it would be great if it could be perfect and we can have them put all that aside and be professional, but I don't really know how we can guarantee that time.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"37:35"</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>When it comes to something like that as well. We've got to understand human qualities about people just like Rachel ass. How can you be nonpartisan? Rachel, I would call myself nonpartisan and trust me it's very difficult. And usually you accomplished and very little other than having friends on both sides and and wondering which direction</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"37:56"</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="D70" s="6" t="inlineStr">
         <is>
           <t>I think it's one thing for a person to be nonpartisan, but the problem is that with the two political parties, either one of them always in power, they have no incentive to choose someone or par non-partisan or any way of enforcing it and they're just inevitably going to appoint someone who aligns with their own party.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker thinks being nonpartisan is positive.
 2. However, there is a problem with the two political parties always being in power.
@@ -2186,99 +2248,102 @@
 5. The parties will inevitably appoint someone who aligns with their own party.</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"38:21"</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>I do have to say, I like the idea, I think that if we as a country were to actually try to understand how we could do this, I think we might end up with some people that could possibly start bringing the country together instead of us being so divided between red and blue. I think people could understand that we have a lot of common goals. Everybody wants to be surviving, you know, thriving not just surviving is what I'm trying to say. And</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>70</v>
-      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="n"/>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"38:21"</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I've never really understood why people can be. So,</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n"/>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
         <v>48688</v>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"38:21"</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Divided, when we're really all just trying to make it each day, we're trying to better Our Lives.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>9950</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"44:14"</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>And I guess I'll say that I added this because I was really surprised to not see a proposal like this listed for consideration for expanding voting access.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker added a proposal
 2. The proposal is for expanding voting access
@@ -2286,177 +2351,58 @@
 4. The proposal was not specified in detail.</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
         <v>48597</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"44:37"</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>Actually Rachel. I really like this question. It was almost the one that I wrote instead of the other one.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
         <v>48696</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"44:45"</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>Yeah, the reason I wanted to ask this to the panel is because like I just kind of feel like I just way smarter than feel like they probably have an example in another country or something where this is already implemented.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker wants to ask the panel a question.
 2. The speaker feels much smarter than the panel members.
 3. The speaker believes that there might be an example in another country where the situation being discussed has already been implemented.</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
         </is>
       </c>
     </row>
